--- a/docs/IART - measures.xlsx
+++ b/docs/IART - measures.xlsx
@@ -7,7 +7,7 @@
   <sheets>
     <sheet name="Resumo da exportação" sheetId="1" r:id="rId4"/>
     <sheet name="Grafico" sheetId="2" r:id="rId5"/>
-    <sheet name="BFS - DFS" sheetId="3" r:id="rId6"/>
+    <sheet name="BFS - BFS" sheetId="3" r:id="rId6"/>
     <sheet name="DFS - DFS" sheetId="4" r:id="rId7"/>
     <sheet name="Uniform Cost - Uniform Cost" sheetId="5" r:id="rId8"/>
     <sheet name="Greedy (best) - Greedy (best)" sheetId="6" r:id="rId9"/>
@@ -36,16 +36,13 @@
     <t>Grafico</t>
   </si>
   <si>
-    <t>Tabela 1</t>
+    <t>“Todos os desenhos da folha”</t>
   </si>
   <si>
     <t>BFS</t>
   </si>
   <si>
-    <t>DFS</t>
-  </si>
-  <si>
-    <t>BFS - DFS</t>
+    <t>BFS - BFS</t>
   </si>
   <si>
     <t>Levels</t>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>DFS</t>
   </si>
   <si>
     <t>DFS - DFS</t>
@@ -144,18 +144,18 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,13 +176,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
+        <fgColor indexed="16"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="15"/>
+        <fgColor indexed="19"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -194,19 +194,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="21"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="25"/>
+        <fgColor indexed="23"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -221,361 +209,361 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="18"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="18"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="18"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="18"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="18"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="18"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="18"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="18"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="21"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="21"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="18"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="21"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="21"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="21"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </left>
       <right style="thin">
-        <color indexed="24"/>
+        <color indexed="22"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="21"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="24"/>
+        <color indexed="22"/>
       </left>
       <right style="thin">
-        <color indexed="24"/>
+        <color indexed="22"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="18"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="24"/>
+        <color indexed="22"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="21"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="24"/>
+        <color indexed="22"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="18"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="21"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="21"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </left>
       <right style="thin">
-        <color indexed="24"/>
+        <color indexed="22"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="24"/>
+        <color indexed="22"/>
       </left>
       <right style="thin">
-        <color indexed="24"/>
+        <color indexed="22"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="24"/>
+        <color indexed="22"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="24"/>
+        <color indexed="22"/>
       </left>
       <right style="thin">
-        <color indexed="24"/>
+        <color indexed="22"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="21"/>
       </top>
       <bottom style="thin">
-        <color indexed="24"/>
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="24"/>
+        <color indexed="22"/>
       </left>
       <right style="thin">
-        <color indexed="24"/>
+        <color indexed="22"/>
       </right>
       <top style="thin">
-        <color indexed="24"/>
+        <color indexed="22"/>
       </top>
       <bottom style="thin">
-        <color indexed="24"/>
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </left>
       <right style="thin">
-        <color indexed="24"/>
+        <color indexed="22"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="21"/>
       </top>
       <bottom style="thin">
-        <color indexed="24"/>
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="17"/>
       </left>
       <right style="thin">
-        <color indexed="24"/>
+        <color indexed="22"/>
       </right>
       <top style="thin">
-        <color indexed="24"/>
+        <color indexed="22"/>
       </top>
       <bottom style="thin">
-        <color indexed="24"/>
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,7 +573,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -610,22 +598,10 @@
     <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -634,10 +610,10 @@
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -646,7 +622,7 @@
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -655,7 +631,7 @@
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -664,7 +640,7 @@
     <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -676,7 +652,7 @@
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -685,10 +661,10 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -700,16 +676,16 @@
     <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -721,13 +697,13 @@
     <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -739,25 +715,25 @@
     <xf numFmtId="49" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -766,13 +742,13 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -798,15 +774,13 @@
       <rgbColor rgb="015e88b1"/>
       <rgbColor rgb="01eef3f4"/>
       <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ffb8b8b8"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="fffe2500"/>
       <rgbColor rgb="ffc24785"/>
       <rgbColor rgb="ff8a9dac"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffb4cde1"/>
       <rgbColor rgb="ffcdeafe"/>
       <rgbColor rgb="ff3f3f3f"/>
@@ -852,9 +826,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.41337"/>
+          <c:x val="0.415659"/>
           <c:y val="0"/>
-          <c:w val="0.173261"/>
+          <c:w val="0.168682"/>
           <c:h val="0.0456019"/>
         </c:manualLayout>
       </c:layout>
@@ -871,9 +845,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0437466"/>
+          <c:x val="0.0425907"/>
           <c:y val="0.0456019"/>
-          <c:w val="0.944695"/>
+          <c:w val="0.946157"/>
           <c:h val="0.867472"/>
         </c:manualLayout>
       </c:layout>
@@ -943,7 +917,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'BFS - DFS'!$A$3:$A$18</c:f>
+              <c:f>'BFS - BFS'!$A$3:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -999,7 +973,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BFS - DFS'!$E$3:$E$18</c:f>
+              <c:f>'BFS - BFS'!$E$3:$E$18</c:f>
               <c:numCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1097,7 +1071,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'BFS - DFS'!$A$3:$A$18</c:f>
+              <c:f>'BFS - BFS'!$A$3:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -1259,7 +1233,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'BFS - DFS'!$A$3:$A$18</c:f>
+              <c:f>'BFS - BFS'!$A$3:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -1422,7 +1396,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'BFS - DFS'!$A$3:$A$18</c:f>
+              <c:f>'BFS - BFS'!$A$3:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -1588,7 +1562,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'BFS - DFS'!$A$3:$A$18</c:f>
+              <c:f>'BFS - BFS'!$A$3:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -1796,7 +1770,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0540773"/>
+          <c:x val="0.0540772"/>
           <c:y val="0.966445"/>
           <c:w val="0.895689"/>
           <c:h val="0.0335548"/>
@@ -4290,7 +4264,7 @@
                 </a:solidFill>
                 <a:latin typeface="Helvetica Neue"/>
               </a:rPr>
-              <a:t>Número de nós vistamos (por unidade)</a:t>
+              <a:t>Número de nós visitados (por unidade)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4299,9 +4273,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.367251"/>
+          <c:x val="0.367542"/>
           <c:y val="0"/>
-          <c:w val="0.265497"/>
+          <c:w val="0.264915"/>
           <c:h val="0.0462169"/>
         </c:manualLayout>
       </c:layout>
@@ -4390,7 +4364,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'BFS - DFS'!$A$3:$A$18</c:f>
+              <c:f>'BFS - BFS'!$A$3:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -4446,7 +4420,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BFS - DFS'!$I$3:$I$18</c:f>
+              <c:f>'BFS - BFS'!$I$3:$I$18</c:f>
               <c:numCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -4544,7 +4518,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'BFS - DFS'!$A$3:$A$18</c:f>
+              <c:f>'BFS - BFS'!$A$3:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -4706,7 +4680,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'BFS - DFS'!$A$3:$A$18</c:f>
+              <c:f>'BFS - BFS'!$A$3:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -4869,7 +4843,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'BFS - DFS'!$A$3:$A$18</c:f>
+              <c:f>'BFS - BFS'!$A$3:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -5035,7 +5009,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'BFS - DFS'!$A$3:$A$18</c:f>
+              <c:f>'BFS - BFS'!$A$3:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -5312,7 +5286,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BFS - DFS'!$E$2</c:f>
+              <c:f>'BFS - BFS'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5378,7 +5352,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'BFS - DFS'!$A$3:$A$18</c:f>
+              <c:f>'BFS - BFS'!$A$3:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -5434,7 +5408,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BFS - DFS'!$E$3:$E$18</c:f>
+              <c:f>'BFS - BFS'!$E$3:$E$18</c:f>
               <c:numCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -5649,7 +5623,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BFS - DFS'!$I$2</c:f>
+              <c:f>'BFS - BFS'!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5715,7 +5689,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'BFS - DFS'!$A$3:$A$18</c:f>
+              <c:f>'BFS - BFS'!$A$3:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -5771,7 +5745,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BFS - DFS'!$I$3:$I$18</c:f>
+              <c:f>'BFS - BFS'!$I$3:$I$18</c:f>
               <c:numCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -7679,16 +7653,16 @@
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>142239</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>101490</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>70251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1177138</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>135167</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>353232</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>40320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7696,8 +7670,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="-1" y="1260474"/>
-        <a:ext cx="9889340" cy="7069369"/>
+        <a:off x="1625490" y="235351"/>
+        <a:ext cx="10157743" cy="7069370"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7709,16 +7683,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>205422</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>212292</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>363364</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>28841</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>200941</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>111160</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>409683</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>69950</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7726,8 +7700,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="205422" y="8659697"/>
-        <a:ext cx="9952320" cy="6975309"/>
+        <a:off x="1887364" y="7953641"/>
+        <a:ext cx="9952320" cy="6975310"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9301,15 +9275,15 @@
     <row r="12">
       <c r="B12" s="4"/>
       <c r="C12" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s" s="5">
         <v>7</v>
-      </c>
-      <c r="D12" t="s" s="5">
-        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s" s="3">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -9317,7 +9291,7 @@
     <row r="14">
       <c r="B14" s="4"/>
       <c r="C14" t="s" s="4">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s" s="5">
         <v>19</v>
@@ -9408,8 +9382,8 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D10" location="'Grafico'!R2C1" tooltip="" display="Grafico"/>
-    <hyperlink ref="D12" location="'BFS - DFS'!R2C1" tooltip="" display="BFS - DFS"/>
+    <hyperlink ref="D10" location="'Grafico'!R1C1" tooltip="" display="Grafico"/>
+    <hyperlink ref="D12" location="'BFS - BFS'!R2C1" tooltip="" display="BFS - BFS"/>
     <hyperlink ref="D14" location="'DFS - DFS'!R2C1" tooltip="" display="DFS - DFS"/>
     <hyperlink ref="D16" location="'Uniform Cost - Uniform Cost'!R2C1" tooltip="" display="Uniform Cost - Uniform Cost"/>
     <hyperlink ref="D18" location="'Greedy (best) - Greedy (best)'!R2C1" tooltip="" display="Greedy (best) - Greedy (best)"/>
@@ -9425,36 +9399,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="16.3516" style="6" customWidth="1"/>
-    <col min="3" max="256" width="16.3516" style="6" customWidth="1"/>
+    <col min="1" max="256" width="10" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>5</v>
-      </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
@@ -9477,19 +9429,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="11" customWidth="1"/>
-    <col min="2" max="2" width="6.9375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="6.90625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="7.11719" style="11" customWidth="1"/>
-    <col min="5" max="5" width="16.9062" style="11" customWidth="1"/>
-    <col min="6" max="8" width="7.22656" style="11" customWidth="1"/>
-    <col min="9" max="9" width="10.9922" style="11" customWidth="1"/>
-    <col min="10" max="256" width="16.3516" style="11" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.9375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="6.90625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="7.11719" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.9062" style="6" customWidth="1"/>
+    <col min="6" max="8" width="7.22656" style="6" customWidth="1"/>
+    <col min="9" max="9" width="10.9922" style="6" customWidth="1"/>
+    <col min="10" max="256" width="16.3516" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -9501,514 +9453,514 @@
       <c r="I1" s="7"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="12">
+      <c r="A2" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="B2" t="s" s="12">
+      <c r="C2" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="C2" t="s" s="12">
+      <c r="D2" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="12">
+      <c r="E2" t="s" s="8">
         <v>12</v>
       </c>
-      <c r="E2" t="s" s="12">
+      <c r="F2" t="s" s="8">
         <v>13</v>
       </c>
-      <c r="F2" t="s" s="12">
+      <c r="G2" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="G2" t="s" s="12">
+      <c r="H2" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="H2" t="s" s="12">
+      <c r="I2" t="s" s="8">
         <v>16</v>
       </c>
-      <c r="I2" t="s" s="12">
-        <v>17</v>
-      </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="13">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="10">
         <v>3</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="11">
         <v>2</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="11">
         <v>2</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="12">
         <f>(B3+C3+D3)/3</f>
         <v>2.33333333333333</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="11">
         <v>3</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="11">
         <v>3</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="11">
         <v>3</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="12">
         <f>(F3+G3+H3)/3</f>
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="17">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="14">
         <v>0</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="15">
         <v>0</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="15">
         <v>1</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="16">
         <f>(B4+C4+D4)/3</f>
         <v>0.333333333333333</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="15">
         <v>2</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="15">
         <v>2</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="15">
         <v>2</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="16">
         <f>(F4+G4+H4)/3</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="17">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="14">
         <v>1</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="15">
         <v>1</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="15">
         <v>1</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="16">
         <f>(B5+C5+D5)/3</f>
         <v>1</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="15">
         <v>19</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="15">
         <v>19</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="15">
         <v>19</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="16">
         <f>(F5+G5+H5)/3</f>
         <v>19</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="17">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="14">
         <v>0</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="15">
         <v>1</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="15">
         <v>0</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="16">
         <f>(B6+C6+D6)/3</f>
         <v>0.333333333333333</v>
       </c>
-      <c r="F6" s="19">
-        <v>17</v>
-      </c>
-      <c r="G6" s="19">
-        <v>17</v>
-      </c>
-      <c r="H6" s="19">
-        <v>17</v>
-      </c>
-      <c r="I6" s="20">
+      <c r="F6" s="15">
+        <v>17</v>
+      </c>
+      <c r="G6" s="15">
+        <v>17</v>
+      </c>
+      <c r="H6" s="15">
+        <v>17</v>
+      </c>
+      <c r="I6" s="16">
         <f>(F6+G6+H6)/3</f>
         <v>17</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="17">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="17">
         <v>58</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="18">
         <v>62</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="18">
         <v>55</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="19">
         <f>(B7+C7+D7)/3</f>
         <v>58.3333333333333</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="18">
         <v>5027</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="18">
         <v>5027</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="18">
         <v>5027</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="19">
         <f>(F7+G7+H7)/3</f>
         <v>5027</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="17">
+      <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="17">
         <v>47</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="18">
         <v>34</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="18">
         <v>51</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="19">
         <f>(B8+C8+D8)/3</f>
         <v>44</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="18">
         <v>6564</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="18">
         <v>6564</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="18">
         <v>6564</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="19">
         <f>(F8+G8+H8)/3</f>
         <v>6564</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="17">
+      <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="17">
         <v>429</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="18">
         <v>452</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="18">
         <v>436</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="19">
         <f>(B9+C9+D9)/3</f>
         <v>439</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="18">
         <v>42728</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="18">
         <v>42728</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="18">
         <v>42728</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="19">
         <f>(F9+G9+H9)/3</f>
         <v>42728</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="17">
+      <c r="A10" s="13">
         <v>8</v>
       </c>
-      <c r="B10" t="s" s="24">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s" s="26">
-        <v>18</v>
+      <c r="B10" t="s" s="20">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s" s="22">
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="17">
+      <c r="A11" s="13">
         <v>9</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="17">
         <v>283</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="18">
         <v>340</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="18">
         <v>325</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="19">
         <f>(B11+C11+D11)/3</f>
         <v>316</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="18">
         <v>43410</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="18">
         <v>43410</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="18">
         <v>43410</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="19">
         <f>(F11+G11+H11)/3</f>
         <v>43410</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="17">
+      <c r="A12" s="13">
         <v>10</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="17">
         <v>348</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="18">
         <v>361</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="18">
         <v>309</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="19">
         <f>(B12+C12+D12)/3</f>
         <v>339.333333333333</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="18">
         <v>78490</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="18">
         <v>78490</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="18">
         <v>78490</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="19">
         <f>(F12+G12+H12)/3</f>
         <v>78490</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="17">
+      <c r="A13" s="13">
         <v>11</v>
       </c>
-      <c r="B13" t="s" s="24">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="H13" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="I13" t="s" s="26">
-        <v>18</v>
+      <c r="B13" t="s" s="20">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s" s="22">
+        <v>17</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="17">
+      <c r="A14" s="13">
         <v>12</v>
       </c>
-      <c r="B14" t="s" s="24">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="H14" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="I14" t="s" s="26">
-        <v>18</v>
+      <c r="B14" t="s" s="20">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s" s="22">
+        <v>17</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="17">
+      <c r="A15" s="13">
         <v>13</v>
       </c>
-      <c r="B15" t="s" s="24">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="I15" t="s" s="26">
-        <v>18</v>
+      <c r="B15" t="s" s="20">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s" s="22">
+        <v>17</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="17">
+      <c r="A16" s="13">
         <v>14</v>
       </c>
-      <c r="B16" t="s" s="24">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="H16" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="I16" t="s" s="26">
-        <v>18</v>
+      <c r="B16" t="s" s="20">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s" s="22">
+        <v>17</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="17">
+      <c r="A17" s="13">
         <v>15</v>
       </c>
-      <c r="B17" t="s" s="24">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="F17" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="H17" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="I17" t="s" s="26">
-        <v>18</v>
+      <c r="B17" t="s" s="20">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s" s="22">
+        <v>17</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="17">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s" s="24">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="F18" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="H18" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="I18" t="s" s="26">
-        <v>18</v>
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s" s="20">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s" s="22">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -10037,19 +9989,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="27" customWidth="1"/>
-    <col min="2" max="2" width="6.9375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="6.90625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="7.11719" style="27" customWidth="1"/>
-    <col min="5" max="5" width="16.9062" style="27" customWidth="1"/>
-    <col min="6" max="8" width="7.22656" style="27" customWidth="1"/>
-    <col min="9" max="9" width="10.9922" style="27" customWidth="1"/>
-    <col min="10" max="256" width="16.3516" style="27" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="23" customWidth="1"/>
+    <col min="2" max="2" width="6.9375" style="23" customWidth="1"/>
+    <col min="3" max="3" width="6.90625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="7.11719" style="23" customWidth="1"/>
+    <col min="5" max="5" width="16.9062" style="23" customWidth="1"/>
+    <col min="6" max="8" width="7.22656" style="23" customWidth="1"/>
+    <col min="9" max="9" width="10.9922" style="23" customWidth="1"/>
+    <col min="10" max="256" width="16.3516" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="7">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -10061,514 +10013,514 @@
       <c r="I1" s="7"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="12">
+      <c r="A2" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="B2" t="s" s="12">
+      <c r="C2" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="C2" t="s" s="12">
+      <c r="D2" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="12">
+      <c r="E2" t="s" s="8">
         <v>12</v>
       </c>
-      <c r="E2" t="s" s="12">
+      <c r="F2" t="s" s="8">
         <v>13</v>
       </c>
-      <c r="F2" t="s" s="12">
+      <c r="G2" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="G2" t="s" s="12">
+      <c r="H2" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="H2" t="s" s="12">
+      <c r="I2" t="s" s="8">
         <v>16</v>
       </c>
-      <c r="I2" t="s" s="12">
-        <v>17</v>
-      </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="13">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="24">
         <v>3</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="25">
         <v>2</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="25">
         <v>3</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="26">
         <f>(B3+C3+D3)/3</f>
         <v>2.66666666666667</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="25">
         <v>5</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="25">
         <v>5</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="25">
         <v>5</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="26">
         <f>(F3+G3+H3)/3</f>
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="17">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="17">
         <v>1</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="18">
         <v>0</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="18">
         <v>0</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="19">
         <f>(B4+C4+D4)/3</f>
         <v>0.333333333333333</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="18">
         <v>3</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="18">
         <v>3</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="18">
         <v>3</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="19">
         <f>(F4+G4+H4)/3</f>
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="17">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="17">
         <v>1</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="18">
         <v>1</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="18">
         <v>1</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="19">
         <f>(B5+C5+D5)/3</f>
         <v>1</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="18">
         <v>42</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="18">
         <v>42</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="18">
         <v>42</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="19">
         <f>(F5+G5+H5)/3</f>
         <v>42</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="17">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="17">
         <v>0</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="18">
         <v>0</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="18">
         <v>0</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="19">
         <f>(B6+C6+D6)/3</f>
         <v>0</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="18">
         <v>38</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="18">
         <v>38</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="18">
         <v>38</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="19">
         <f>(F6+G6+H6)/3</f>
         <v>38</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="17">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="17">
         <v>331</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="18">
         <v>325</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="18">
         <v>275</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="19">
         <f>(B7+C7+D7)/3</f>
         <v>310.333333333333</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="18">
         <v>57516</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="18">
         <v>57516</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="18">
         <v>57516</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="19">
         <f>(F7+G7+H7)/3</f>
         <v>57516</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="17">
+      <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="17">
         <v>350</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="18">
         <v>348</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="18">
         <v>276</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="19">
         <f>(B8+C8+D8)/3</f>
         <v>324.666666666667</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="18">
         <v>85366</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="18">
         <v>85366</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="18">
         <v>85366</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="19">
         <f>(F8+G8+H8)/3</f>
         <v>85366</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="17">
+      <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="17">
         <v>337</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="18">
         <v>276</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="18">
         <v>370</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="19">
         <f>(B9+C9+D9)/3</f>
         <v>327.666666666667</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="18">
         <v>251877</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="18">
         <v>251877</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="18">
         <v>251877</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="19">
         <f>(F9+G9+H9)/3</f>
         <v>251877</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="17">
+      <c r="A10" s="13">
         <v>8</v>
       </c>
-      <c r="B10" t="s" s="24">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s" s="26">
-        <v>18</v>
+      <c r="B10" t="s" s="20">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s" s="22">
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="17">
+      <c r="A11" s="13">
         <v>9</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="17">
         <v>314</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="18">
         <v>318</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="18">
         <v>271</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="19">
         <f>(B11+C11+D11)/3</f>
         <v>301</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="18">
         <v>264981</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="18">
         <v>264981</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="18">
         <v>264981</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="19">
         <f>(F11+G11+H11)/3</f>
         <v>264981</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="17">
+      <c r="A12" s="13">
         <v>10</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="17">
         <v>1761</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="18">
         <v>1720</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="18">
         <v>1691</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="19">
         <f>(B12+C12+D12)/3</f>
         <v>1724</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="18">
         <v>1568229</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="18">
         <v>1568229</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="18">
         <v>1568229</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="19">
         <f>(F12+G12+H12)/3</f>
         <v>1568229</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="17">
+      <c r="A13" s="13">
         <v>11</v>
       </c>
-      <c r="B13" t="s" s="24">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="H13" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="I13" t="s" s="26">
-        <v>18</v>
+      <c r="B13" t="s" s="20">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s" s="22">
+        <v>17</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="17">
+      <c r="A14" s="13">
         <v>12</v>
       </c>
-      <c r="B14" t="s" s="24">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="H14" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="I14" t="s" s="26">
-        <v>18</v>
+      <c r="B14" t="s" s="20">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s" s="22">
+        <v>17</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="17">
+      <c r="A15" s="13">
         <v>13</v>
       </c>
-      <c r="B15" t="s" s="24">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="I15" t="s" s="26">
-        <v>18</v>
+      <c r="B15" t="s" s="20">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s" s="22">
+        <v>17</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="17">
+      <c r="A16" s="13">
         <v>14</v>
       </c>
-      <c r="B16" t="s" s="24">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="H16" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="I16" t="s" s="26">
-        <v>18</v>
+      <c r="B16" t="s" s="20">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s" s="22">
+        <v>17</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="17">
+      <c r="A17" s="13">
         <v>15</v>
       </c>
-      <c r="B17" t="s" s="24">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="F17" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="H17" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="I17" t="s" s="26">
-        <v>18</v>
+      <c r="B17" t="s" s="20">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s" s="22">
+        <v>17</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="17">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s" s="24">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="F18" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="H18" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="I18" t="s" s="26">
-        <v>18</v>
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s" s="20">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s" s="22">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -10597,15 +10549,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="31" customWidth="1"/>
-    <col min="2" max="2" width="6.9375" style="31" customWidth="1"/>
-    <col min="3" max="3" width="6.90625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="7.11719" style="31" customWidth="1"/>
-    <col min="5" max="5" width="16.9062" style="31" customWidth="1"/>
-    <col min="6" max="6" width="8.07812" style="31" customWidth="1"/>
-    <col min="7" max="8" width="7.22656" style="31" customWidth="1"/>
-    <col min="9" max="9" width="10.9922" style="31" customWidth="1"/>
-    <col min="10" max="256" width="16.3516" style="31" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="27" customWidth="1"/>
+    <col min="2" max="2" width="6.9375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="6.90625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="7.11719" style="27" customWidth="1"/>
+    <col min="5" max="5" width="16.9062" style="27" customWidth="1"/>
+    <col min="6" max="6" width="8.07812" style="27" customWidth="1"/>
+    <col min="7" max="8" width="7.22656" style="27" customWidth="1"/>
+    <col min="9" max="9" width="10.9922" style="27" customWidth="1"/>
+    <col min="10" max="256" width="16.3516" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -10622,520 +10574,520 @@
       <c r="I1" s="7"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="12">
+      <c r="A2" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="B2" t="s" s="12">
+      <c r="C2" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="C2" t="s" s="12">
+      <c r="D2" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="12">
+      <c r="E2" t="s" s="8">
         <v>12</v>
       </c>
-      <c r="E2" t="s" s="12">
+      <c r="F2" t="s" s="8">
         <v>13</v>
       </c>
-      <c r="F2" t="s" s="12">
+      <c r="G2" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="G2" t="s" s="12">
+      <c r="H2" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="H2" t="s" s="12">
+      <c r="I2" t="s" s="8">
         <v>16</v>
       </c>
-      <c r="I2" t="s" s="12">
-        <v>17</v>
-      </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="13">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="24">
         <v>2</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="25">
         <v>2</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="25">
         <v>3</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="26">
         <f>(B3+C3+D3)/3</f>
         <v>2.33333333333333</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="25">
         <v>3</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="25">
         <v>3</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="25">
         <v>3</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="26">
         <f>(F3+G3+H3)/3</f>
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="17">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="17">
         <v>0</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="18">
         <v>0</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="18">
         <v>0</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="19">
         <f>(B4+C4+D4)/3</f>
         <v>0</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="18">
         <v>2</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="18">
         <v>2</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="18">
         <v>2</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="19">
         <f>(F4+G4+H4)/3</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="17">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="17">
         <v>0</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="18">
         <v>0</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="18">
         <v>1</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="19">
         <f>(B5+C5+D5)/3</f>
         <v>0.333333333333333</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="18">
         <v>31</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="18">
         <v>31</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="18">
         <v>31</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="19">
         <f>(F5+G5+H5)/3</f>
         <v>31</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="17">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="17">
         <v>1</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="18">
         <v>0</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="18">
         <v>1</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="19">
         <f>(B6+C6+D6)/3</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="18">
         <v>29</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="18">
         <v>29</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="18">
         <v>29</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="19">
         <f>(F6+G6+H6)/3</f>
         <v>29</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="17">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="17">
         <v>21</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="18">
         <v>21</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="18">
         <v>23</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="19">
         <f>(B7+C7+D7)/3</f>
         <v>21.6666666666667</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="18">
         <v>2991</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="18">
         <v>2991</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="18">
         <v>2991</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="19">
         <f>(F7+G7+H7)/3</f>
         <v>2991</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="17">
+      <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="17">
         <v>16</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="18">
         <v>16</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="18">
         <v>16</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="19">
         <f>(B8+C8+D8)/3</f>
         <v>16</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="18">
         <v>3100</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="18">
         <v>3100</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="18">
         <v>3100</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="19">
         <f>(F8+G8+H8)/3</f>
         <v>3100</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="17">
+      <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="17">
         <v>166</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="18">
         <v>148</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="18">
         <v>142</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="19">
         <f>(B9+C9+D9)/3</f>
         <v>152</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="18">
         <v>41192</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="18">
         <v>41192</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="18">
         <v>41192</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="19">
         <f>(F9+G9+H9)/3</f>
         <v>41192</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="17">
+      <c r="A10" s="13">
         <v>8</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="17">
         <v>3402</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="18">
         <v>2615</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="18">
         <v>2608</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="19">
         <f>(B10+C10+D10)/3</f>
         <v>2875</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="18">
         <v>1526647</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="18">
         <v>1526647</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="18">
         <v>1526647</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="19">
         <f>(F10+G10+H10)/3</f>
         <v>1526647</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="17">
+      <c r="A11" s="13">
         <v>9</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="17">
         <v>331</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="18">
         <v>216</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="18">
         <v>218</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="19">
         <f>(B11+C11+D11)/3</f>
         <v>255</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="18">
         <v>107822</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="18">
         <v>107822</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="18">
         <v>107822</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="19">
         <f>(F11+G11+H11)/3</f>
         <v>107822</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="17">
+      <c r="A12" s="13">
         <v>10</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="17">
         <v>142</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="18">
         <v>104</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="18">
         <v>107</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="19">
         <f>(B12+C12+D12)/3</f>
         <v>117.666666666667</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="18">
         <v>50302</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="18">
         <v>50302</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="18">
         <v>50302</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="19">
         <f>(F12+G12+H12)/3</f>
         <v>50302</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="17">
+      <c r="A13" s="13">
         <v>11</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="17">
         <v>2794</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="18">
         <v>2517</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="18">
         <v>1859</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="19">
         <f>(B13+C13+D13)/3</f>
         <v>2390</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="18">
         <v>875963</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="18">
         <v>875963</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="18">
         <v>875963</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="19">
         <f>(F13+G13+H13)/3</f>
         <v>875963</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="17">
+      <c r="A14" s="13">
         <v>12</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="17">
         <v>2331</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="18">
         <v>1959</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="18">
         <v>2171</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="19">
         <f>(B14+C14+D14)/3</f>
         <v>2153.666666666670</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="18">
         <v>1139935</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="18">
         <v>1139935</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="18">
         <v>1139935</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="19">
         <f>(F14+G14+H14)/3</f>
         <v>1139935</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="17">
+      <c r="A15" s="13">
         <v>13</v>
       </c>
-      <c r="B15" t="s" s="24">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="I15" t="s" s="26">
-        <v>18</v>
+      <c r="B15" t="s" s="20">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s" s="22">
+        <v>17</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="17">
+      <c r="A16" s="13">
         <v>14</v>
       </c>
-      <c r="B16" t="s" s="24">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="H16" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="I16" t="s" s="26">
-        <v>18</v>
+      <c r="B16" t="s" s="20">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s" s="22">
+        <v>17</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="17">
+      <c r="A17" s="13">
         <v>15</v>
       </c>
-      <c r="B17" t="s" s="24">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="F17" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="H17" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="I17" t="s" s="26">
-        <v>18</v>
+      <c r="B17" t="s" s="20">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s" s="22">
+        <v>17</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="17">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s" s="24">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="F18" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="H18" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="I18" t="s" s="26">
-        <v>18</v>
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s" s="20">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s" s="22">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -11164,14 +11116,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="32" customWidth="1"/>
-    <col min="2" max="2" width="6.9375" style="32" customWidth="1"/>
-    <col min="3" max="3" width="6.90625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="7.11719" style="32" customWidth="1"/>
-    <col min="5" max="5" width="16.1719" style="32" customWidth="1"/>
-    <col min="6" max="8" width="7.22656" style="32" customWidth="1"/>
-    <col min="9" max="9" width="10.9922" style="32" customWidth="1"/>
-    <col min="10" max="256" width="16.3516" style="32" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="28" customWidth="1"/>
+    <col min="2" max="2" width="6.9375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="6.90625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="7.11719" style="28" customWidth="1"/>
+    <col min="5" max="5" width="16.1719" style="28" customWidth="1"/>
+    <col min="6" max="8" width="7.22656" style="28" customWidth="1"/>
+    <col min="9" max="9" width="10.9922" style="28" customWidth="1"/>
+    <col min="10" max="256" width="16.3516" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -11188,520 +11140,520 @@
       <c r="I1" s="7"/>
     </row>
     <row r="2" ht="20.35" customHeight="1">
-      <c r="A2" t="s" s="12">
+      <c r="A2" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s" s="29">
         <v>9</v>
       </c>
-      <c r="B2" t="s" s="33">
+      <c r="C2" t="s" s="29">
         <v>10</v>
       </c>
-      <c r="C2" t="s" s="33">
+      <c r="D2" t="s" s="29">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="33">
+      <c r="E2" t="s" s="8">
         <v>12</v>
       </c>
-      <c r="E2" t="s" s="12">
+      <c r="F2" t="s" s="29">
         <v>13</v>
       </c>
-      <c r="F2" t="s" s="33">
+      <c r="G2" t="s" s="29">
         <v>14</v>
       </c>
-      <c r="G2" t="s" s="33">
+      <c r="H2" t="s" s="29">
         <v>15</v>
       </c>
-      <c r="H2" t="s" s="33">
+      <c r="I2" t="s" s="8">
         <v>16</v>
       </c>
-      <c r="I2" t="s" s="12">
-        <v>17</v>
-      </c>
     </row>
     <row r="3" ht="20.35" customHeight="1">
-      <c r="A3" s="34">
+      <c r="A3" s="30">
         <v>1</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="31">
         <v>6</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="32">
         <v>11</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="33">
         <v>8</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="34">
         <f>(B3+C3+D3)/3</f>
         <v>8.33333333333333</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="35">
         <v>3</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="32">
         <v>3</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="33">
         <v>3</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="36">
         <f>(F3+G3+H3)/3</f>
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="41">
+      <c r="A4" s="37">
         <v>2</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="38">
         <v>0</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="39">
         <v>0</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="40">
         <v>0</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="41">
         <f>(B4+C4+D4)/3</f>
         <v>0</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="42">
         <v>2</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="39">
         <v>2</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="40">
         <v>2</v>
       </c>
-      <c r="I4" s="47">
+      <c r="I4" s="43">
         <f>(F4+G4+H4)/3</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="41">
+      <c r="A5" s="37">
         <v>3</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="38">
         <v>1</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="39">
         <v>0</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="40">
         <v>2</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="41">
         <f>(B5+C5+D5)/3</f>
         <v>1</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="42">
         <v>11</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="39">
         <v>11</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="40">
         <v>11</v>
       </c>
-      <c r="I5" s="47">
+      <c r="I5" s="43">
         <f>(F5+G5+H5)/3</f>
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="41">
+      <c r="A6" s="37">
         <v>4</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="38">
         <v>1</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="39">
         <v>0</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="40">
         <v>2</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="41">
         <f>(B6+C6+D6)/3</f>
         <v>1</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="42">
         <v>13</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="39">
         <v>13</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="40">
         <v>13</v>
       </c>
-      <c r="I6" s="47">
+      <c r="I6" s="43">
         <f>(F6+G6+H6)/3</f>
         <v>13</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="41">
+      <c r="A7" s="37">
         <v>5</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="38">
         <v>5</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="39">
         <v>7</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="40">
         <v>9</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="41">
         <f>(B7+C7+D7)/3</f>
         <v>7</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="42">
         <v>119</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="39">
         <v>119</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="40">
         <v>119</v>
       </c>
-      <c r="I7" s="47">
+      <c r="I7" s="43">
         <f>(F7+G7+H7)/3</f>
         <v>119</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="41">
+      <c r="A8" s="37">
         <v>6</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="38">
         <v>7</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="39">
         <v>13</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="40">
         <v>9</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="41">
         <f>(B8+C8+D8)/3</f>
         <v>9.66666666666667</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="42">
         <v>336</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G8" s="39">
         <v>336</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="40">
         <v>336</v>
       </c>
-      <c r="I8" s="47">
+      <c r="I8" s="43">
         <f>(F8+G8+H8)/3</f>
         <v>336</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="41">
+      <c r="A9" s="37">
         <v>7</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="38">
         <v>44</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="39">
         <v>61</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="40">
         <v>43</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="41">
         <f>(B9+C9+D9)/3</f>
         <v>49.3333333333333</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="42">
         <v>2048</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G9" s="39">
         <v>2048</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="40">
         <v>2048</v>
       </c>
-      <c r="I9" s="47">
+      <c r="I9" s="43">
         <f>(F9+G9+H9)/3</f>
         <v>2048</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="41">
+      <c r="A10" s="37">
         <v>8</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="38">
         <v>378</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="39">
         <v>423</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="40">
         <v>594</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="41">
         <f>(B10+C10+D10)/3</f>
         <v>465</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="42">
         <v>54139</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="39">
         <v>54139</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="40">
         <v>54139</v>
       </c>
-      <c r="I10" s="47">
+      <c r="I10" s="43">
         <f>(F10+G10+H10)/3</f>
         <v>54139</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="41">
+      <c r="A11" s="37">
         <v>9</v>
       </c>
-      <c r="B11" s="42">
+      <c r="B11" s="38">
         <v>38</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="39">
         <v>45</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="40">
         <v>45</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="41">
         <f>(B11+C11+D11)/3</f>
         <v>42.6666666666667</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="42">
         <v>5786</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="39">
         <v>5786</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="40">
         <v>5786</v>
       </c>
-      <c r="I11" s="47">
+      <c r="I11" s="43">
         <f>(F11+G11+H11)/3</f>
         <v>5786</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="41">
+      <c r="A12" s="37">
         <v>10</v>
       </c>
-      <c r="B12" s="42">
+      <c r="B12" s="38">
         <v>5</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="39">
         <v>20</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="40">
         <v>23</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="41">
         <f>(B12+C12+D12)/3</f>
         <v>16</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="42">
         <v>858</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="39">
         <v>858</v>
       </c>
-      <c r="H12" s="44">
+      <c r="H12" s="40">
         <v>858</v>
       </c>
-      <c r="I12" s="47">
+      <c r="I12" s="43">
         <f>(F12+G12+H12)/3</f>
         <v>858</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="41">
+      <c r="A13" s="37">
         <v>11</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B13" s="38">
         <v>1236</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="39">
         <v>1172</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="40">
         <v>1364</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="41">
         <f>(B13+C13+D13)/3</f>
         <v>1257.333333333330</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="42">
         <v>275495</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G13" s="39">
         <v>275495</v>
       </c>
-      <c r="H13" s="44">
+      <c r="H13" s="40">
         <v>275495</v>
       </c>
-      <c r="I13" s="47">
+      <c r="I13" s="43">
         <f>(F13+G13+H13)/3</f>
         <v>275495</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="41">
+      <c r="A14" s="37">
         <v>12</v>
       </c>
-      <c r="B14" s="42">
+      <c r="B14" s="38">
         <v>670</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="39">
         <v>763</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="40">
         <v>776</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="41">
         <f>(B14+C14+D14)/3</f>
         <v>736.333333333333</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="42">
         <v>240343</v>
       </c>
-      <c r="G14" s="43">
+      <c r="G14" s="39">
         <v>240343</v>
       </c>
-      <c r="H14" s="44">
+      <c r="H14" s="40">
         <v>240343</v>
       </c>
-      <c r="I14" s="47">
+      <c r="I14" s="43">
         <f>(F14+G14+H14)/3</f>
         <v>240343</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="41">
+      <c r="A15" s="37">
         <v>13</v>
       </c>
-      <c r="B15" t="s" s="48">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s" s="49">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s" s="50">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s" s="51">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s" s="52">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s" s="49">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s" s="50">
-        <v>18</v>
-      </c>
-      <c r="I15" t="s" s="53">
-        <v>18</v>
+      <c r="B15" t="s" s="44">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s" s="45">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s" s="46">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s" s="47">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s" s="48">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s" s="45">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s" s="46">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s" s="49">
+        <v>17</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="41">
+      <c r="A16" s="37">
         <v>14</v>
       </c>
-      <c r="B16" t="s" s="48">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s" s="49">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s" s="50">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s" s="51">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s" s="52">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s" s="49">
-        <v>18</v>
-      </c>
-      <c r="H16" t="s" s="50">
-        <v>18</v>
-      </c>
-      <c r="I16" t="s" s="53">
-        <v>18</v>
+      <c r="B16" t="s" s="44">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s" s="45">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s" s="46">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s" s="47">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s" s="48">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s" s="45">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s" s="46">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s" s="49">
+        <v>17</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="41">
+      <c r="A17" s="37">
         <v>15</v>
       </c>
-      <c r="B17" t="s" s="48">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s" s="49">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s" s="50">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s" s="51">
-        <v>18</v>
-      </c>
-      <c r="F17" t="s" s="52">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s" s="49">
-        <v>18</v>
-      </c>
-      <c r="H17" t="s" s="50">
-        <v>18</v>
-      </c>
-      <c r="I17" t="s" s="53">
-        <v>18</v>
+      <c r="B17" t="s" s="44">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s" s="45">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s" s="46">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s" s="47">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s" s="48">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s" s="45">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s" s="46">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s" s="49">
+        <v>17</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="41">
-        <v>17</v>
-      </c>
-      <c r="B18" s="42">
+      <c r="A18" s="37">
+        <v>17</v>
+      </c>
+      <c r="B18" s="38">
         <v>3243</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="39">
         <v>4520</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D18" s="40">
         <v>4360</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E18" s="41">
         <f>(B18+C18+D18)/3</f>
         <v>4041</v>
       </c>
-      <c r="F18" s="46">
+      <c r="F18" s="42">
         <v>683287</v>
       </c>
-      <c r="G18" s="43">
+      <c r="G18" s="39">
         <v>683287</v>
       </c>
-      <c r="H18" s="44">
+      <c r="H18" s="40">
         <v>683287</v>
       </c>
-      <c r="I18" s="47">
+      <c r="I18" s="43">
         <f>(F18+G18+H18)/3</f>
         <v>683287</v>
       </c>
@@ -11732,14 +11684,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="54" customWidth="1"/>
-    <col min="2" max="2" width="6.9375" style="54" customWidth="1"/>
-    <col min="3" max="3" width="6.90625" style="54" customWidth="1"/>
-    <col min="4" max="4" width="7.11719" style="54" customWidth="1"/>
-    <col min="5" max="5" width="15.8516" style="54" customWidth="1"/>
-    <col min="6" max="8" width="7.22656" style="54" customWidth="1"/>
-    <col min="9" max="9" width="10.9922" style="54" customWidth="1"/>
-    <col min="10" max="256" width="16.3516" style="54" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="50" customWidth="1"/>
+    <col min="2" max="2" width="6.9375" style="50" customWidth="1"/>
+    <col min="3" max="3" width="6.90625" style="50" customWidth="1"/>
+    <col min="4" max="4" width="7.11719" style="50" customWidth="1"/>
+    <col min="5" max="5" width="15.8516" style="50" customWidth="1"/>
+    <col min="6" max="8" width="7.22656" style="50" customWidth="1"/>
+    <col min="9" max="9" width="10.9922" style="50" customWidth="1"/>
+    <col min="10" max="256" width="16.3516" style="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -11756,497 +11708,497 @@
       <c r="I1" s="7"/>
     </row>
     <row r="2" ht="20.35" customHeight="1">
-      <c r="A2" t="s" s="12">
+      <c r="A2" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s" s="29">
         <v>9</v>
       </c>
-      <c r="B2" t="s" s="33">
+      <c r="C2" t="s" s="29">
         <v>10</v>
       </c>
-      <c r="C2" t="s" s="33">
+      <c r="D2" t="s" s="29">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="33">
+      <c r="E2" t="s" s="29">
         <v>12</v>
       </c>
-      <c r="E2" t="s" s="33">
+      <c r="F2" t="s" s="29">
         <v>13</v>
       </c>
-      <c r="F2" t="s" s="33">
+      <c r="G2" t="s" s="29">
         <v>14</v>
       </c>
-      <c r="G2" t="s" s="33">
+      <c r="H2" t="s" s="29">
         <v>15</v>
       </c>
-      <c r="H2" t="s" s="33">
+      <c r="I2" t="s" s="29">
         <v>16</v>
       </c>
-      <c r="I2" t="s" s="33">
-        <v>17</v>
-      </c>
     </row>
     <row r="3" ht="20.7" customHeight="1">
-      <c r="A3" s="34">
+      <c r="A3" s="30">
         <v>1</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="31">
         <v>0</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="32">
         <v>6</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="33">
         <v>10</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="51">
         <v>5.333333333</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="35">
         <v>3</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="32">
         <v>3</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="33">
         <v>3</v>
       </c>
-      <c r="I3" s="55">
+      <c r="I3" s="51">
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="20.7" customHeight="1">
-      <c r="A4" s="41">
+      <c r="A4" s="37">
         <v>2</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="38">
         <v>1</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="39">
         <v>0</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="40">
         <v>0</v>
       </c>
-      <c r="E4" s="56">
+      <c r="E4" s="52">
         <v>0.3333333333</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="42">
         <v>2</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="39">
         <v>2</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="40">
         <v>2</v>
       </c>
-      <c r="I4" s="56">
+      <c r="I4" s="52">
         <v>2</v>
       </c>
     </row>
     <row r="5" ht="20.7" customHeight="1">
-      <c r="A5" s="41">
+      <c r="A5" s="37">
         <v>3</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="38">
         <v>1</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="39">
         <v>1</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="40">
         <v>1</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="52">
         <v>1</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="42">
         <v>11</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="39">
         <v>11</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="40">
         <v>11</v>
       </c>
-      <c r="I5" s="56">
+      <c r="I5" s="52">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="20.7" customHeight="1">
-      <c r="A6" s="41">
+      <c r="A6" s="37">
         <v>4</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="38">
         <v>1</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="39">
         <v>1</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="40">
         <v>1</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E6" s="52">
         <v>1</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="42">
         <v>13</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="39">
         <v>13</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="40">
         <v>13</v>
       </c>
-      <c r="I6" s="56">
+      <c r="I6" s="52">
         <v>13</v>
       </c>
     </row>
     <row r="7" ht="20.7" customHeight="1">
-      <c r="A7" s="41">
+      <c r="A7" s="37">
         <v>5</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="38">
         <v>30</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="39">
         <v>23</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="40">
         <v>25</v>
       </c>
-      <c r="E7" s="56">
+      <c r="E7" s="52">
         <v>26</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="42">
         <v>783</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="39">
         <v>783</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="40">
         <v>783</v>
       </c>
-      <c r="I7" s="56">
+      <c r="I7" s="52">
         <v>783</v>
       </c>
     </row>
     <row r="8" ht="20.7" customHeight="1">
-      <c r="A8" s="41">
+      <c r="A8" s="37">
         <v>6</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="38">
         <v>11</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="39">
         <v>8</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="40">
         <v>12</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="52">
         <v>10.33333333</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="42">
         <v>372</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G8" s="39">
         <v>372</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="40">
         <v>372</v>
       </c>
-      <c r="I8" s="56">
+      <c r="I8" s="52">
         <v>372</v>
       </c>
     </row>
     <row r="9" ht="20.7" customHeight="1">
-      <c r="A9" s="41">
+      <c r="A9" s="37">
         <v>7</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="38">
         <v>124</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="39">
         <v>121</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="40">
         <v>125</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="52">
         <v>123.3333333</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="42">
         <v>7268</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G9" s="39">
         <v>7268</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="40">
         <v>7268</v>
       </c>
-      <c r="I9" s="56">
+      <c r="I9" s="52">
         <v>7268</v>
       </c>
     </row>
     <row r="10" ht="20.7" customHeight="1">
-      <c r="A10" s="41">
+      <c r="A10" s="37">
         <v>8</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="38">
         <v>38</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="39">
         <v>23</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="40">
         <v>24</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="52">
         <v>28.33333333</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="42">
         <v>4215</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="39">
         <v>4215</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="40">
         <v>4215</v>
       </c>
-      <c r="I10" s="56">
+      <c r="I10" s="52">
         <v>4215</v>
       </c>
     </row>
     <row r="11" ht="20.7" customHeight="1">
-      <c r="A11" s="41">
+      <c r="A11" s="37">
         <v>9</v>
       </c>
-      <c r="B11" s="42">
+      <c r="B11" s="38">
         <v>264</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="39">
         <v>221</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="40">
         <v>228</v>
       </c>
-      <c r="E11" s="56">
+      <c r="E11" s="52">
         <v>237.6666667</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="42">
         <v>20790</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="39">
         <v>20790</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="40">
         <v>20790</v>
       </c>
-      <c r="I11" s="56">
+      <c r="I11" s="52">
         <v>20790</v>
       </c>
     </row>
     <row r="12" ht="20.7" customHeight="1">
-      <c r="A12" s="41">
+      <c r="A12" s="37">
         <v>10</v>
       </c>
-      <c r="B12" s="42">
+      <c r="B12" s="38">
         <v>26</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="39">
         <v>33</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="40">
         <v>41</v>
       </c>
-      <c r="E12" s="56">
+      <c r="E12" s="52">
         <f>(B12+C12+D12)/3</f>
         <v>33.3333333333333</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="42">
         <v>4158</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="39">
         <v>4158</v>
       </c>
-      <c r="H12" s="44">
+      <c r="H12" s="40">
         <v>4158</v>
       </c>
-      <c r="I12" s="56">
+      <c r="I12" s="52">
         <v>4158</v>
       </c>
     </row>
     <row r="13" ht="20.7" customHeight="1">
-      <c r="A13" s="41">
+      <c r="A13" s="37">
         <v>11</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B13" s="38">
         <v>1880</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="39">
         <v>1783</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="40">
         <v>1831</v>
       </c>
-      <c r="E13" s="56">
+      <c r="E13" s="52">
         <v>1831.333333</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="42">
         <v>343791</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G13" s="39">
         <v>343791</v>
       </c>
-      <c r="H13" s="44">
+      <c r="H13" s="40">
         <v>343791</v>
       </c>
-      <c r="I13" s="56">
+      <c r="I13" s="52">
         <v>343791</v>
       </c>
     </row>
     <row r="14" ht="20.7" customHeight="1">
-      <c r="A14" s="41">
+      <c r="A14" s="37">
         <v>12</v>
       </c>
-      <c r="B14" s="42">
+      <c r="B14" s="38">
         <v>408</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="39">
         <v>436</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="40">
         <v>451</v>
       </c>
-      <c r="E14" s="56">
+      <c r="E14" s="52">
         <v>431.6666667</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="42">
         <v>159671</v>
       </c>
-      <c r="G14" s="43">
+      <c r="G14" s="39">
         <v>159671</v>
       </c>
-      <c r="H14" s="44">
+      <c r="H14" s="40">
         <v>159671</v>
       </c>
-      <c r="I14" s="56">
+      <c r="I14" s="52">
         <v>159671</v>
       </c>
     </row>
     <row r="15" ht="20.7" customHeight="1">
-      <c r="A15" s="41">
+      <c r="A15" s="37">
         <v>13</v>
       </c>
-      <c r="B15" t="s" s="48">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s" s="49">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s" s="50">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s" s="57">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s" s="52">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s" s="49">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s" s="50">
-        <v>18</v>
-      </c>
-      <c r="I15" t="s" s="57">
-        <v>18</v>
+      <c r="B15" t="s" s="44">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s" s="45">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s" s="46">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s" s="53">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s" s="48">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s" s="45">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s" s="46">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s" s="53">
+        <v>17</v>
       </c>
     </row>
     <row r="16" ht="20.7" customHeight="1">
-      <c r="A16" s="41">
+      <c r="A16" s="37">
         <v>14</v>
       </c>
-      <c r="B16" t="s" s="48">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s" s="49">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s" s="50">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s" s="57">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s" s="52">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s" s="49">
-        <v>18</v>
-      </c>
-      <c r="H16" t="s" s="50">
-        <v>18</v>
-      </c>
-      <c r="I16" t="s" s="57">
-        <v>18</v>
+      <c r="B16" t="s" s="44">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s" s="45">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s" s="46">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s" s="53">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s" s="48">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s" s="45">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s" s="46">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s" s="53">
+        <v>17</v>
       </c>
     </row>
     <row r="17" ht="20.7" customHeight="1">
-      <c r="A17" s="41">
+      <c r="A17" s="37">
         <v>15</v>
       </c>
-      <c r="B17" t="s" s="48">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s" s="49">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s" s="50">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s" s="57">
-        <v>18</v>
-      </c>
-      <c r="F17" t="s" s="52">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s" s="49">
-        <v>18</v>
-      </c>
-      <c r="H17" t="s" s="50">
-        <v>18</v>
-      </c>
-      <c r="I17" t="s" s="57">
-        <v>18</v>
+      <c r="B17" t="s" s="44">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s" s="45">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s" s="46">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s" s="53">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s" s="48">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s" s="45">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s" s="46">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s" s="53">
+        <v>17</v>
       </c>
     </row>
     <row r="18" ht="20.7" customHeight="1">
-      <c r="A18" s="41">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s" s="48">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s" s="49">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s" s="50">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s" s="57">
-        <v>18</v>
-      </c>
-      <c r="F18" t="s" s="52">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s" s="49">
-        <v>18</v>
-      </c>
-      <c r="H18" t="s" s="50">
-        <v>18</v>
-      </c>
-      <c r="I18" t="s" s="57">
-        <v>18</v>
+      <c r="A18" s="37">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s" s="44">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s" s="45">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s" s="46">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s" s="53">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s" s="48">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s" s="45">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s" s="46">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s" s="53">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -12275,14 +12227,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="58" customWidth="1"/>
-    <col min="2" max="2" width="6.9375" style="58" customWidth="1"/>
-    <col min="3" max="3" width="6.90625" style="58" customWidth="1"/>
-    <col min="4" max="4" width="7.11719" style="58" customWidth="1"/>
-    <col min="5" max="5" width="18.2188" style="58" customWidth="1"/>
-    <col min="6" max="8" width="7.22656" style="58" customWidth="1"/>
-    <col min="9" max="9" width="10.9922" style="58" customWidth="1"/>
-    <col min="10" max="256" width="16.3516" style="58" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="54" customWidth="1"/>
+    <col min="2" max="2" width="6.9375" style="54" customWidth="1"/>
+    <col min="3" max="3" width="6.90625" style="54" customWidth="1"/>
+    <col min="4" max="4" width="7.11719" style="54" customWidth="1"/>
+    <col min="5" max="5" width="18.2188" style="54" customWidth="1"/>
+    <col min="6" max="8" width="7.22656" style="54" customWidth="1"/>
+    <col min="9" max="9" width="10.9922" style="54" customWidth="1"/>
+    <col min="10" max="256" width="16.3516" style="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -12299,520 +12251,520 @@
       <c r="I1" s="7"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="12">
+      <c r="A2" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="B2" t="s" s="12">
+      <c r="C2" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="C2" t="s" s="12">
+      <c r="D2" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="12">
+      <c r="E2" t="s" s="8">
         <v>12</v>
       </c>
-      <c r="E2" t="s" s="12">
+      <c r="F2" t="s" s="8">
         <v>13</v>
       </c>
-      <c r="F2" t="s" s="12">
+      <c r="G2" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="G2" t="s" s="12">
+      <c r="H2" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="H2" t="s" s="12">
+      <c r="I2" t="s" s="8">
         <v>16</v>
       </c>
-      <c r="I2" t="s" s="12">
-        <v>17</v>
-      </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="13">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="24">
         <v>7</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="25">
         <v>6</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="25">
         <v>6</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="26">
         <f>(B3+C3+D3)/3</f>
         <v>6.33333333333333</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="25">
         <v>3</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="25">
         <v>3</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="25">
         <v>3</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="26">
         <f>(F3+G3+H3)/3</f>
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="17">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="17">
         <v>0</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="18">
         <v>0</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="18">
         <v>0</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="19">
         <f>(B4+C4+D4)/3</f>
         <v>0</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="18">
         <v>2</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="18">
         <v>2</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="18">
         <v>2</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="19">
         <f>(F4+G4+H4)/3</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="17">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="17">
         <v>1</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="18">
         <v>1</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="18">
         <v>0</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="19">
         <f>(B5+C5+D5)/3</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="18">
         <v>11</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="18">
         <v>11</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="18">
         <v>11</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="19">
         <f>(F5+G5+H5)/3</f>
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="17">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="17">
         <v>1</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="18">
         <v>2</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="18">
         <v>1</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="19">
         <f>(B6+C6+D6)/3</f>
         <v>1.33333333333333</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="18">
         <v>13</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="18">
         <v>13</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="18">
         <v>13</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="19">
         <f>(F6+G6+H6)/3</f>
         <v>13</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="17">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="17">
         <v>20</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="18">
         <v>15</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="18">
         <v>20</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="19">
         <f>(B7+C7+D7)/3</f>
         <v>18.3333333333333</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="18">
         <v>119</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="18">
         <v>119</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="18">
         <v>119</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="19">
         <f>(F7+G7+H7)/3</f>
         <v>119</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="17">
+      <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="17">
         <v>13</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="18">
         <v>10</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="18">
         <v>13</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="19">
         <f>(B8+C8+D8)/3</f>
         <v>12</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="18">
         <v>336</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="18">
         <v>336</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="18">
         <v>336</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="19">
         <f>(F8+G8+H8)/3</f>
         <v>336</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="17">
+      <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="17">
         <v>177</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="18">
         <v>98</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="18">
         <v>109</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="19">
         <f>(B9+C9+D9)/3</f>
         <v>128</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="18">
         <v>2048</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="18">
         <v>2048</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="18">
         <v>2048</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="19">
         <f>(F9+G9+H9)/3</f>
         <v>2048</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="17">
+      <c r="A10" s="13">
         <v>8</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="17">
         <v>1616</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="18">
         <v>1503</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="18">
         <v>1590</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="19">
         <f>(B10+C10+D10)/3</f>
         <v>1569.666666666670</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="18">
         <v>54139</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="18">
         <v>54139</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="18">
         <v>54139</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="19">
         <f>(F10+G10+H10)/3</f>
         <v>54139</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="17">
+      <c r="A11" s="13">
         <v>9</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="17">
         <v>191</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="18">
         <v>102</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="18">
         <v>148</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="19">
         <f>(B11+C11+D11)/3</f>
         <v>147</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="18">
         <v>5786</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="18">
         <v>5786</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="18">
         <v>5786</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="19">
         <f>(F11+G11+H11)/3</f>
         <v>5786</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="17">
+      <c r="A12" s="13">
         <v>10</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="17">
         <v>16</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="18">
         <v>8</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="18">
         <v>9</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="19">
         <f>(B12+C12+D12)/3</f>
         <v>11</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="18">
         <v>858</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="18">
         <v>858</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="18">
         <v>858</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="19">
         <f>(F12+G12+H12)/3</f>
         <v>858</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="17">
+      <c r="A13" s="13">
         <v>11</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="17">
         <v>3224</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="18">
         <v>2793</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="18">
         <v>2952</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="19">
         <f>(B13+C13+D13)/3</f>
         <v>2989.666666666670</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="18">
         <v>275495</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="18">
         <v>275495</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="18">
         <v>275495</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="19">
         <f>(F13+G13+H13)/3</f>
         <v>275495</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="17">
+      <c r="A14" s="13">
         <v>12</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="17">
         <v>3122</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="18">
         <v>4194</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="18">
         <v>3059</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="19">
         <f>(B14+C14+D14)/3</f>
         <v>3458.333333333330</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="18">
         <v>240343</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="18">
         <v>240343</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="18">
         <v>240343</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="19">
         <f>(F14+G14+H14)/3</f>
         <v>240343</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="41">
+      <c r="A15" s="37">
         <v>13</v>
       </c>
-      <c r="B15" t="s" s="48">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s" s="49">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s" s="50">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s" s="51">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s" s="52">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s" s="49">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s" s="50">
-        <v>18</v>
-      </c>
-      <c r="I15" t="s" s="53">
-        <v>18</v>
+      <c r="B15" t="s" s="44">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s" s="45">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s" s="46">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s" s="47">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s" s="48">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s" s="45">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s" s="46">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s" s="49">
+        <v>17</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="41">
+      <c r="A16" s="37">
         <v>14</v>
       </c>
-      <c r="B16" t="s" s="48">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s" s="49">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s" s="50">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s" s="51">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s" s="52">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s" s="49">
-        <v>18</v>
-      </c>
-      <c r="H16" t="s" s="50">
-        <v>18</v>
-      </c>
-      <c r="I16" t="s" s="53">
-        <v>18</v>
+      <c r="B16" t="s" s="44">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s" s="45">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s" s="46">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s" s="47">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s" s="48">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s" s="45">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s" s="46">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s" s="49">
+        <v>17</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="41">
+      <c r="A17" s="37">
         <v>15</v>
       </c>
-      <c r="B17" t="s" s="48">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s" s="49">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s" s="50">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s" s="51">
-        <v>18</v>
-      </c>
-      <c r="F17" t="s" s="52">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s" s="49">
-        <v>18</v>
-      </c>
-      <c r="H17" t="s" s="50">
-        <v>18</v>
-      </c>
-      <c r="I17" t="s" s="53">
-        <v>18</v>
+      <c r="B17" t="s" s="44">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s" s="45">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s" s="46">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s" s="47">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s" s="48">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s" s="45">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s" s="46">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s" s="49">
+        <v>17</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="41">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s" s="48">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s" s="49">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s" s="50">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s" s="51">
-        <v>18</v>
-      </c>
-      <c r="F18" t="s" s="52">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s" s="49">
-        <v>18</v>
-      </c>
-      <c r="H18" t="s" s="50">
-        <v>18</v>
-      </c>
-      <c r="I18" t="s" s="53">
-        <v>18</v>
+      <c r="A18" s="37">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s" s="44">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s" s="45">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s" s="46">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s" s="47">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s" s="48">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s" s="45">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s" s="46">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s" s="49">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -12841,15 +12793,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="59" customWidth="1"/>
-    <col min="2" max="2" width="6.9375" style="59" customWidth="1"/>
-    <col min="3" max="3" width="6.90625" style="59" customWidth="1"/>
-    <col min="4" max="4" width="7.11719" style="59" customWidth="1"/>
-    <col min="5" max="5" width="15.8516" style="59" customWidth="1"/>
-    <col min="6" max="7" width="7.22656" style="59" customWidth="1"/>
-    <col min="8" max="8" width="8.125" style="59" customWidth="1"/>
-    <col min="9" max="9" width="15.8516" style="59" customWidth="1"/>
-    <col min="10" max="256" width="16.3516" style="59" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="55" customWidth="1"/>
+    <col min="2" max="2" width="6.9375" style="55" customWidth="1"/>
+    <col min="3" max="3" width="6.90625" style="55" customWidth="1"/>
+    <col min="4" max="4" width="7.11719" style="55" customWidth="1"/>
+    <col min="5" max="5" width="15.8516" style="55" customWidth="1"/>
+    <col min="6" max="7" width="7.22656" style="55" customWidth="1"/>
+    <col min="8" max="8" width="8.125" style="55" customWidth="1"/>
+    <col min="9" max="9" width="15.8516" style="55" customWidth="1"/>
+    <col min="10" max="256" width="16.3516" style="55" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -12866,511 +12818,511 @@
       <c r="I1" s="7"/>
     </row>
     <row r="2" ht="20.35" customHeight="1">
-      <c r="A2" t="s" s="12">
+      <c r="A2" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="B2" t="s" s="12">
+      <c r="C2" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="C2" t="s" s="12">
+      <c r="D2" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="12">
+      <c r="E2" t="s" s="29">
         <v>12</v>
       </c>
-      <c r="E2" t="s" s="33">
+      <c r="F2" t="s" s="8">
         <v>13</v>
       </c>
-      <c r="F2" t="s" s="12">
+      <c r="G2" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="G2" t="s" s="12">
+      <c r="H2" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="H2" t="s" s="12">
+      <c r="I2" t="s" s="29">
         <v>16</v>
       </c>
-      <c r="I2" t="s" s="33">
-        <v>17</v>
-      </c>
     </row>
     <row r="3" ht="20.7" customHeight="1">
-      <c r="A3" s="13">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="10">
         <v>16</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="11">
         <v>8</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="11">
         <v>7</v>
       </c>
-      <c r="E3" s="60">
+      <c r="E3" s="56">
         <v>5.333333333</v>
       </c>
-      <c r="F3" s="61">
+      <c r="F3" s="57">
         <v>3</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="11">
         <v>3</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="11">
         <v>3</v>
       </c>
-      <c r="I3" s="60">
+      <c r="I3" s="56">
         <f>(F3+G3+H3)/3</f>
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="20.7" customHeight="1">
-      <c r="A4" s="17">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="14">
         <v>0</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="15">
         <v>0</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="15">
         <v>1</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="58">
         <v>0.3333333333</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="59">
         <v>2</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="15">
         <v>2</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="15">
         <v>2</v>
       </c>
-      <c r="I4" s="62">
+      <c r="I4" s="58">
         <f>(F4+G4+H4)/3</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" ht="20.7" customHeight="1">
-      <c r="A5" s="17">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="14">
         <v>2</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="15">
         <v>1</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="15">
         <v>1</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="58">
         <v>1</v>
       </c>
-      <c r="F5" s="63">
+      <c r="F5" s="59">
         <v>11</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="15">
         <v>11</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="15">
         <v>11</v>
       </c>
-      <c r="I5" s="62">
+      <c r="I5" s="58">
         <f>(F5+G5+H5)/3</f>
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="20.7" customHeight="1">
-      <c r="A6" s="17">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="14">
         <v>3</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="15">
         <v>1</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="15">
         <v>2</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="58">
         <v>1</v>
       </c>
-      <c r="F6" s="63">
-        <v>17</v>
-      </c>
-      <c r="G6" s="19">
-        <v>17</v>
-      </c>
-      <c r="H6" s="19">
-        <v>17</v>
-      </c>
-      <c r="I6" s="62">
+      <c r="F6" s="59">
+        <v>17</v>
+      </c>
+      <c r="G6" s="15">
+        <v>17</v>
+      </c>
+      <c r="H6" s="15">
+        <v>17</v>
+      </c>
+      <c r="I6" s="58">
         <f>(F6+G6+H6)/3</f>
         <v>17</v>
       </c>
     </row>
     <row r="7" ht="20.7" customHeight="1">
-      <c r="A7" s="17">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="14">
         <v>51</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="15">
         <v>45</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="15">
         <v>43</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="58">
         <v>26</v>
       </c>
-      <c r="F7" s="63">
+      <c r="F7" s="59">
         <v>1439</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="15">
         <v>1439</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="15">
         <v>1439</v>
       </c>
-      <c r="I7" s="62">
+      <c r="I7" s="58">
         <f>(F7+G7+H7)/3</f>
         <v>1439</v>
       </c>
     </row>
     <row r="8" ht="20.7" customHeight="1">
-      <c r="A8" s="17">
+      <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="14">
         <v>20</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="15">
         <v>14</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="15">
         <v>13</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="58">
         <v>10.33333333</v>
       </c>
-      <c r="F8" s="63">
+      <c r="F8" s="59">
         <v>628</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="15">
         <v>628</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="15">
         <v>628</v>
       </c>
-      <c r="I8" s="62">
+      <c r="I8" s="58">
         <f>(F8+G8+H8)/3</f>
         <v>628</v>
       </c>
     </row>
     <row r="9" ht="20.7" customHeight="1">
-      <c r="A9" s="17">
+      <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="14">
         <v>400</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="15">
         <v>438</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="15">
         <v>404</v>
       </c>
-      <c r="E9" s="62">
+      <c r="E9" s="58">
         <v>123.3333333</v>
       </c>
-      <c r="F9" s="63">
+      <c r="F9" s="59">
         <v>31340</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="15">
         <v>31340</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="15">
         <v>31340</v>
       </c>
-      <c r="I9" s="62">
+      <c r="I9" s="58">
         <f>(F9+G9+H9)/3</f>
         <v>31340</v>
       </c>
     </row>
     <row r="10" ht="20.7" customHeight="1">
-      <c r="A10" s="17">
+      <c r="A10" s="13">
         <v>8</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="14">
         <v>281</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="15">
         <v>257</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="15">
         <v>279</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="58">
         <v>28.33333333</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F10" s="59">
         <v>20367</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="15">
         <v>20367</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="15">
         <v>20367</v>
       </c>
-      <c r="I10" s="62">
+      <c r="I10" s="58">
         <f>(F10+G10+H10)/3</f>
         <v>20367</v>
       </c>
     </row>
     <row r="11" ht="20.7" customHeight="1">
-      <c r="A11" s="17">
+      <c r="A11" s="13">
         <v>9</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="14">
         <v>321</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="15">
         <v>279</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="15">
         <v>399</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="58">
         <v>237.6666667</v>
       </c>
-      <c r="F11" s="63">
+      <c r="F11" s="59">
         <v>50662</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="15">
         <v>50662</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="15">
         <v>50662</v>
       </c>
-      <c r="I11" s="62">
+      <c r="I11" s="58">
         <f>(F11+G11+H11)/3</f>
         <v>50662</v>
       </c>
     </row>
     <row r="12" ht="20.7" customHeight="1">
-      <c r="A12" s="17">
+      <c r="A12" s="13">
         <v>10</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="14">
         <v>44</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="15">
         <v>49</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="15">
         <v>54</v>
       </c>
-      <c r="E12" s="62">
+      <c r="E12" s="58">
         <f>(B12+C12+D12)/3</f>
         <v>49</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F12" s="59">
         <v>8310</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="15">
         <v>8310</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="15">
         <v>8310</v>
       </c>
-      <c r="I12" s="62">
+      <c r="I12" s="58">
         <f>(F12+G12+H12)/3</f>
         <v>8310</v>
       </c>
     </row>
     <row r="13" ht="20.7" customHeight="1">
-      <c r="A13" s="17">
+      <c r="A13" s="13">
         <v>11</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="14">
         <v>9429</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="15">
         <v>10912</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="15">
         <v>9567</v>
       </c>
-      <c r="E13" s="62">
+      <c r="E13" s="58">
         <f>(B13+C13+D13)/3</f>
         <v>9969.333333333330</v>
       </c>
-      <c r="F13" s="63">
+      <c r="F13" s="59">
         <v>1789071</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="15">
         <v>1789071</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="15">
         <v>1789071</v>
       </c>
-      <c r="I13" s="62">
+      <c r="I13" s="58">
         <f>(F13+G13+H13)/3</f>
         <v>1789071</v>
       </c>
     </row>
     <row r="14" ht="20.7" customHeight="1">
-      <c r="A14" s="17">
+      <c r="A14" s="13">
         <v>12</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="14">
         <v>2560</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="15">
         <v>2788</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="15">
         <v>2210</v>
       </c>
-      <c r="E14" s="62">
+      <c r="E14" s="58">
         <f>(B14+C14+D14)/3</f>
         <v>2519.333333333330</v>
       </c>
-      <c r="F14" s="63">
+      <c r="F14" s="59">
         <v>475235</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="15">
         <v>475235</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="15">
         <v>475235</v>
       </c>
-      <c r="I14" s="62">
+      <c r="I14" s="58">
         <f>(F14+G14+H14)/3</f>
         <v>475235</v>
       </c>
     </row>
     <row r="15" ht="20.7" customHeight="1">
-      <c r="A15" s="41">
+      <c r="A15" s="37">
         <v>13</v>
       </c>
-      <c r="B15" t="s" s="48">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s" s="49">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s" s="50">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s" s="57">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s" s="52">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s" s="49">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s" s="50">
-        <v>18</v>
-      </c>
-      <c r="I15" t="s" s="57">
-        <v>18</v>
+      <c r="B15" t="s" s="44">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s" s="45">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s" s="46">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s" s="53">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s" s="48">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s" s="45">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s" s="46">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s" s="53">
+        <v>17</v>
       </c>
     </row>
     <row r="16" ht="20.7" customHeight="1">
-      <c r="A16" s="41">
+      <c r="A16" s="37">
         <v>14</v>
       </c>
-      <c r="B16" t="s" s="48">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s" s="49">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s" s="50">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s" s="57">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s" s="52">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s" s="49">
-        <v>18</v>
-      </c>
-      <c r="H16" t="s" s="50">
-        <v>18</v>
-      </c>
-      <c r="I16" t="s" s="57">
-        <v>18</v>
+      <c r="B16" t="s" s="44">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s" s="45">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s" s="46">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s" s="53">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s" s="48">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s" s="45">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s" s="46">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s" s="53">
+        <v>17</v>
       </c>
     </row>
     <row r="17" ht="20.7" customHeight="1">
-      <c r="A17" s="41">
+      <c r="A17" s="37">
         <v>15</v>
       </c>
-      <c r="B17" t="s" s="48">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s" s="49">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s" s="50">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s" s="57">
-        <v>18</v>
-      </c>
-      <c r="F17" t="s" s="52">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s" s="49">
-        <v>18</v>
-      </c>
-      <c r="H17" t="s" s="50">
-        <v>18</v>
-      </c>
-      <c r="I17" t="s" s="57">
-        <v>18</v>
+      <c r="B17" t="s" s="44">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s" s="45">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s" s="46">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s" s="53">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s" s="48">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s" s="45">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s" s="46">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s" s="53">
+        <v>17</v>
       </c>
     </row>
     <row r="18" ht="20.7" customHeight="1">
-      <c r="A18" s="41">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s" s="48">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s" s="49">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s" s="50">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s" s="57">
-        <v>18</v>
-      </c>
-      <c r="F18" t="s" s="52">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s" s="49">
-        <v>18</v>
-      </c>
-      <c r="H18" t="s" s="50">
-        <v>18</v>
-      </c>
-      <c r="I18" t="s" s="57">
-        <v>18</v>
+      <c r="A18" s="37">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s" s="44">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s" s="45">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s" s="46">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s" s="53">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s" s="48">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s" s="45">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s" s="46">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s" s="53">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
